--- a/biology/Médecine/John_Hall-Edwards/John_Hall-Edwards.xlsx
+++ b/biology/Médecine/John_Hall-Edwards/John_Hall-Edwards.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">John Hall-Edwards (19 décembre 1858 - 15 août 1926) est un pionnier dans l'utilisation médicale des rayons X au Royaume-Uni[1]. Il prit son premier cliché dans le but de diriger une opération chirurgicale le 14 février 1896. L'intérêt de Hall-Edwards pour les rayons X lui a coûté son bras gauche, qui dû être amputé en 1906.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John Hall-Edwards (19 décembre 1858 - 15 août 1926) est un pionnier dans l'utilisation médicale des rayons X au Royaume-Uni. Il prit son premier cliché dans le but de diriger une opération chirurgicale le 14 février 1896. L'intérêt de Hall-Edwards pour les rayons X lui a coûté son bras gauche, qui dû être amputé en 1906.
 </t>
         </is>
       </c>
